--- a/REGULAR/OJT/PATRICIO, APRIL.xlsx
+++ b/REGULAR/OJT/PATRICIO, APRIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8983979C-F4D5-4FC2-89EC-EB7CAEC904F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ED841F-0A65-40C3-93BA-92CCC7389D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>12/16,22,23,26,29</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>DAYCARE WORKER I</t>
+  </si>
+  <si>
+    <t>CSWDO</t>
+  </si>
+  <si>
+    <t>3/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -3023,9 +3035,9 @@
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A54" activePane="bottomLeft"/>
-      <selection activeCell="E11" sqref="E11"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <pane ySplit="3576" topLeftCell="A55" activePane="bottomLeft"/>
+      <selection activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3068,7 +3080,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>69</v>
+      </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3086,12 +3100,16 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="52" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3182,7 +3200,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3192,7 +3210,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49</v>
+        <v>51.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4496,13 +4514,15 @@
         <v>44958</v>
       </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4514,19 +4534,25 @@
         <f t="shared" ref="A70:A79" si="1">EDATE(A69,1)</f>
         <v>44986</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">

--- a/REGULAR/OJT/PATRICIO, APRIL.xlsx
+++ b/REGULAR/OJT/PATRICIO, APRIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ED841F-0A65-40C3-93BA-92CCC7389D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646F430-9BE9-4CB4-A8AD-4B643F566D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>3/23,24/2023</t>
+  </si>
+  <si>
+    <t>6/23,26/2023</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2640,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3035,9 +3038,9 @@
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3200,7 +3203,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3210,7 +3213,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.5</v>
+        <v>54</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4560,13 +4563,15 @@
         <v>45017</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
@@ -4578,19 +4583,27 @@
         <f t="shared" si="1"/>
         <v>45047</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="39"/>
+      <c r="B72" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39">
+        <v>2</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
